--- a/priv/assets/files/finance-import-sample-alipay.xlsx
+++ b/priv/assets/files/finance-import-sample-alipay.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>SourceType</t>
   </si>
@@ -41,6 +41,21 @@
   </si>
   <si>
     <t>TradeTime</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>NO001</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>消费</t>
   </si>
 </sst>
 </file>
@@ -656,8 +671,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1185,13 +1203,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="20.9903846153846" customWidth="1"/>
     <col min="2" max="2" width="19.7019230769231" customWidth="1"/>
@@ -1258,8 +1276,37 @@
       <c r="H2">
         <v>8</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
+        <v>45370.631724537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>89</v>
+      </c>
+      <c r="H3">
+        <v>129</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45370.631724537</v>
       </c>
     </row>
   </sheetData>
